--- a/web/fmatt_new-prop.xlsx
+++ b/web/fmatt_new-prop.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="159">
   <si>
     <t>Total Missed Appointments</t>
   </si>
@@ -531,12 +531,6 @@
     <t>to_from_miap_daily_total</t>
   </si>
   <si>
-    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 1.3.0</t>
-  </si>
-  <si>
-    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 1.3.0</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Missed Appointments continuos followup
 </t>
@@ -554,13 +548,22 @@
     </r>
   </si>
   <si>
-    <t>Previous Month Outcomes</t>
+    <t>Self Transfer Outs</t>
   </si>
   <si>
-    <t>Current Month Outcomes</t>
+    <t>Current Month's Outcomes</t>
   </si>
   <si>
-    <t>Self Transfer Outs</t>
+    <t>Previous Month's Outcomes</t>
+  </si>
+  <si>
+    <t>Number  of patients Self Transferred  Out</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 2.0.0</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 2.0.0</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +719,30 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -815,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1658,30 +1683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="9"/>
       </left>
@@ -1689,19 +1690,6 @@
         <color theme="9"/>
       </right>
       <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
         <color theme="9"/>
       </top>
       <bottom/>
@@ -1720,39 +1708,13 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="9"/>
       </left>
       <right style="thin">
         <color theme="9"/>
       </right>
       <top style="medium">
-        <color theme="5"/>
+        <color theme="9"/>
       </top>
       <bottom style="thin">
         <color theme="9"/>
@@ -1764,33 +1726,7 @@
         <color theme="9"/>
       </left>
       <right style="medium">
-        <color theme="5"/>
-      </right>
-      <top style="medium">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
         <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5"/>
-      </left>
-      <right style="medium">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color theme="5"/>
       </right>
       <top style="medium">
         <color theme="9"/>
@@ -1802,19 +1738,38 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="5"/>
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
       </left>
       <right style="medium">
         <color theme="9"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5"/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
       <right style="thin">
         <color theme="9"/>
       </right>
@@ -1822,7 +1777,7 @@
         <color theme="9"/>
       </top>
       <bottom style="medium">
-        <color theme="5"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1837,22 +1792,7 @@
         <color theme="9"/>
       </top>
       <bottom style="medium">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom style="medium">
-        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1861,13 +1801,83 @@
         <color theme="9"/>
       </left>
       <right style="medium">
-        <color theme="5"/>
+        <color theme="9"/>
       </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
       <top style="medium">
         <color theme="9"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="5"/>
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1875,7 +1885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2190,22 +2200,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2214,11 +2211,137 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2238,9 +2361,6 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2249,6 +2369,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2304,9 +2427,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2326,6 +2446,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2351,90 +2480,32 @@
     <xf numFmtId="1" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="185">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3327,13 +3398,18 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5170,10 +5246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="113"/>
+      <c r="B1" s="143"/>
     </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5256,10 +5332,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="114"/>
+      <c r="B13" s="144"/>
     </row>
     <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
@@ -5358,17 +5434,17 @@
   </sheetPr>
   <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="17" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="20" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="20" customWidth="1"/>
@@ -5379,49 +5455,49 @@
     <col min="10" max="33" width="9.140625" style="20"/>
     <col min="34" max="34" width="8.42578125" style="20" customWidth="1"/>
     <col min="35" max="35" width="22.28515625" style="20" customWidth="1"/>
-    <col min="36" max="36" width="10" style="18" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="18" customWidth="1"/>
+    <col min="36" max="36" width="10" style="18" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5703125" style="18" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="7.7109375" style="13" customWidth="1"/>
     <col min="39" max="43" width="9.140625" style="13"/>
     <col min="44" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="115" t="str">
+      <c r="B1" s="147" t="str">
         <f>IF(COUNTIF(D7:AH7,"&lt;0")&gt;0,"Form has Validation Errors, Please correct before uploading","")</f>
         <v/>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
     </row>
     <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37"/>
@@ -5463,146 +5539,146 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="124" t="s">
+      <c r="C3" s="148"/>
+      <c r="D3" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="116" t="s">
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="122" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="s">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="118">
+      <c r="T3" s="148"/>
+      <c r="U3" s="150">
         <v>15288</v>
       </c>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
       <c r="X3" s="39"/>
-      <c r="Y3" s="116" t="s">
+      <c r="Y3" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118">
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="150">
         <v>2021</v>
       </c>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="116" t="s">
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="117" t="s">
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="117"/>
+      <c r="AH3" s="149"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="137" t="s">
+      <c r="B4" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="134" t="s">
+      <c r="AJ4" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="135"/>
+      <c r="AK4" s="167"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="138"/>
-      <c r="AJ5" s="130" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="132" t="s">
+      <c r="AK5" s="164" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5707,480 +5783,473 @@
       <c r="AH6" s="49">
         <v>31</v>
       </c>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="133"/>
-    </row>
-    <row r="7" spans="1:37" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="163">
-        <v>1</v>
-      </c>
-      <c r="B7" s="160" t="s">
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="165"/>
+    </row>
+    <row r="7" spans="1:37" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="106">
-        <v>30</v>
-      </c>
-      <c r="D7" s="107">
-        <v>29</v>
-      </c>
-      <c r="E7" s="107">
-        <v>29</v>
-      </c>
-      <c r="F7" s="107">
-        <v>27</v>
-      </c>
-      <c r="G7" s="107">
-        <f>IF(ISBLANK(G19),0,$F$7-(SUM(G8:G11))+G19)</f>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130">
+        <f>IF(ISBLANK(D16),0,$C$7-(SUM(D8:D11)))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="107">
-        <f>IF(ISBLANK(H20),0,$G$7-(SUM(H8:H11))+H20)</f>
+      <c r="E7" s="130">
+        <f>IF(ISBLANK(E17),0,$D$7-(SUM(E8:E11)))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="107">
-        <f>IF(ISBLANK(I21),0,$H$7-(SUM(I8:I11))+I21)</f>
+      <c r="F7" s="130">
+        <f>IF(ISBLANK(F18),0,$E$7-(SUM(F8:F11)))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="107">
-        <f>IF(ISBLANK(J22),0,$I$7-(SUM(J8:J11))+J22)</f>
+      <c r="G7" s="130">
+        <f>IF(ISBLANK(G19),0,$F$7-(SUM(G8:G11)))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="107">
-        <f>IF(ISBLANK(K23),0,$J$7-(SUM(K8:K11))+K23)</f>
+      <c r="H7" s="130">
+        <f>IF(ISBLANK(H20),0,$G$7-(SUM(H8:H11)))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="107">
-        <f>IF(ISBLANK(L24),0,$K$7-(SUM(L8:L11))+L24)</f>
+      <c r="I7" s="130">
+        <f>IF(ISBLANK(I21),0,$H$7-(SUM(I8:I11)))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="107">
-        <f>IF(ISBLANK(M25),0,$L$7-(SUM(M8:M11))+M25)</f>
+      <c r="J7" s="130">
+        <f>IF(ISBLANK(J22),0,$I$7-(SUM(J8:J11)))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="107">
-        <f>IF(ISBLANK(N26),0,$M$7-(SUM(N8:N11))+N26)</f>
+      <c r="K7" s="130">
+        <f>IF(ISBLANK(K23),0,$J$7-(SUM(K8:K11)))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="107">
-        <f>IF(ISBLANK(O27),0,$N$7-(SUM(O8:O11))+O27)</f>
+      <c r="L7" s="130">
+        <f>IF(ISBLANK(L24),0,$K$7-(SUM(L8:L11)))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="107">
-        <f>IF(ISBLANK(P28),0,$O$7-(SUM(P8:P11))+P28)</f>
+      <c r="M7" s="130">
+        <f>IF(ISBLANK(M25),0,$L$7-(SUM(M8:M11)))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="107">
-        <f>IF(ISBLANK(Q29),0,$P$7-(SUM(Q8:Q11))+Q29)</f>
+      <c r="N7" s="130">
+        <f>IF(ISBLANK(N26),0,$M$7-(SUM(N8:N11)))</f>
         <v>0</v>
       </c>
-      <c r="R7" s="107">
-        <f>IF(ISBLANK(R30),0,$Q$7-(SUM(R8:R11))+R30)</f>
+      <c r="O7" s="130">
+        <f>IF(ISBLANK(O27),0,$N$7-(SUM(O8:O11)))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="107">
-        <f>IF(ISBLANK(S31),0,$R$7-(SUM(S8:S11))+S31)</f>
+      <c r="P7" s="130">
+        <f>IF(ISBLANK(P28),0,$O$7-(SUM(P8:P11)))</f>
         <v>0</v>
       </c>
-      <c r="T7" s="107">
-        <f>IF(ISBLANK(T32),0,$S$7-(SUM(T8:T11))+T32)</f>
+      <c r="Q7" s="130">
+        <f>IF(ISBLANK(Q29),0,$P$7-(SUM(Q8:Q11)))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="107">
-        <f>IF(ISBLANK(U33),0,$T$7-(SUM(U8:U11))+U33)</f>
+      <c r="R7" s="130">
+        <f>IF(ISBLANK(R30),0,$Q$7-(SUM(R8:R11)))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="107">
-        <f>IF(ISBLANK(V34),0,$U$7-(SUM(V8:V11))+V34)</f>
+      <c r="S7" s="130">
+        <f>IF(ISBLANK(S31),0,$R$7-(SUM(S8:S11)))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="107">
-        <f>IF(ISBLANK(W35),0,$V$7-(SUM(W8:W11))+W35)</f>
+      <c r="T7" s="130">
+        <f>IF(ISBLANK(T32),0,$S$7-(SUM(T8:T11)))</f>
         <v>0</v>
       </c>
-      <c r="X7" s="107">
-        <f>IF(ISBLANK(X36),0,$W$7-(SUM(X8:X11))+X36)</f>
+      <c r="U7" s="130">
+        <f>IF(ISBLANK(U33),0,$T$7-(SUM(U8:U11)))</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="107">
-        <f>IF(ISBLANK(Y37),0,$X$7-(SUM(Y8:Y11))+Y37)</f>
+      <c r="V7" s="130">
+        <f>IF(ISBLANK(V34),0,$U$7-(SUM(V8:V11)))</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="107">
-        <f>IF(ISBLANK(Z38),0,$Y$7-(SUM(Z8:Z11))+Z38)</f>
+      <c r="W7" s="130">
+        <f>IF(ISBLANK(W35),0,$V$7-(SUM(W8:W11)))</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="107">
-        <f>IF(ISBLANK(AA39),0,$Z$7-(SUM(AA8:AA11))+AA39)</f>
+      <c r="X7" s="130">
+        <f>IF(ISBLANK(X36),0,$W$7-(SUM(X8:X11)))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="107">
-        <f>IF(ISBLANK(AB40),0,$AA$7-(SUM(AB8:AB11))+AB40)</f>
+      <c r="Y7" s="130">
+        <f>IF(ISBLANK(Y37),0,$X$7-(SUM(Y8:Y11)))</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="107">
-        <f>IF(ISBLANK(AC41),0,$AB$7-(SUM(AC8:AC11))+AC41)</f>
+      <c r="Z7" s="130">
+        <f>IF(ISBLANK(Z38),0,$Y$7-(SUM(Z8:Z11)))</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="107">
-        <f>IF(ISBLANK(AD42),0,$AC$7-(SUM(AD8:AD11))+AD42)</f>
+      <c r="AA7" s="130">
+        <f>IF(ISBLANK(AA39),0,$Z$7-(SUM(AA8:AA11)))</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="107">
-        <f>IF(ISBLANK(AE43),0,$AD$7-(SUM(AE8:AE11))+AE43)</f>
+      <c r="AB7" s="130">
+        <f>IF(ISBLANK(AB40),0,$AA$7-(SUM(AB8:AB11)))</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="107">
-        <f>IF(ISBLANK(AF44),0,$AE$7-(SUM(AF8:AF11))+AF44)</f>
+      <c r="AC7" s="130">
+        <f>IF(ISBLANK(AC41),0,$AB$7-(SUM(AC8:AC11)))</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="107">
-        <f>IF(ISBLANK(AG45),0,$AF$7-(SUM(AG8:AG11))+AG45)</f>
+      <c r="AD7" s="130">
+        <f>IF(ISBLANK(AD42),0,$AC$7-(SUM(AD8:AD11)))</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="107">
-        <f>IF(ISBLANK(AH46),0,$AG$7-(SUM(AH8:AH11))+AH46)</f>
+      <c r="AE7" s="130">
+        <f>IF(ISBLANK(AE43),0,$AD$7-(SUM(AE8:AE11)))</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="140"/>
+      <c r="AF7" s="130">
+        <f>IF(ISBLANK(AF44),0,$AE$7-(SUM(AF8:AF11)))</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="130">
+        <f>IF(ISBLANK(AG45),0,$AF$7-(SUM(AG8:AG11)))</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="130">
+        <f>IF(ISBLANK(AH46),0,$AG$7-(SUM(AH8:AH11)))</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="172"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
-    <row r="8" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="161" t="s">
+    <row r="8" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="146"/>
+      <c r="B8" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111">
-        <v>1</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111">
-        <v>2</v>
-      </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="141"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="134"/>
+      <c r="AI8" s="173"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
     <row r="9" spans="1:37" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
-      <c r="B9" s="162" t="s">
+      <c r="A9" s="146"/>
+      <c r="B9" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="142"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="137"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="174"/>
       <c r="AJ9" s="50"/>
       <c r="AK9" s="51"/>
     </row>
-    <row r="10" spans="1:37" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
-      <c r="B10" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
+    <row r="10" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="146"/>
+      <c r="B10" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="135"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="137"/>
+      <c r="AH10" s="138"/>
       <c r="AI10" s="105"/>
       <c r="AJ10" s="99"/>
       <c r="AK10" s="100"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
-      <c r="B11" s="164" t="s">
+      <c r="A11" s="146"/>
+      <c r="B11" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="166"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="166"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="166"/>
-      <c r="AG11" s="166"/>
-      <c r="AH11" s="166"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="141"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="142"/>
       <c r="AI11" s="105"/>
       <c r="AJ11" s="99"/>
       <c r="AK11" s="100"/>
     </row>
-    <row r="12" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="169" t="s">
+    <row r="12" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
-      <c r="Z12" s="171"/>
-      <c r="AA12" s="171"/>
-      <c r="AB12" s="171"/>
-      <c r="AC12" s="171"/>
-      <c r="AD12" s="171"/>
-      <c r="AE12" s="171"/>
-      <c r="AF12" s="171"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="172"/>
-      <c r="AI12" s="112"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="124"/>
+      <c r="AE12" s="124"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="108"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
-      <c r="B13" s="162" t="s">
+    <row r="13" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="182"/>
+      <c r="B13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111">
-        <v>2</v>
-      </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="174"/>
-      <c r="AI13" s="112"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="108"/>
       <c r="AJ13" s="50"/>
       <c r="AK13" s="51"/>
     </row>
-    <row r="14" spans="1:37" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="173"/>
-      <c r="B14" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="174"/>
-      <c r="AI14" s="112"/>
+    <row r="14" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="182"/>
+      <c r="B14" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="121"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="108"/>
       <c r="AJ14" s="99"/>
       <c r="AK14" s="100"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="183"/>
+      <c r="B15" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="178"/>
-      <c r="X15" s="178"/>
-      <c r="Y15" s="178"/>
-      <c r="Z15" s="178"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="178"/>
-      <c r="AC15" s="178"/>
-      <c r="AD15" s="178"/>
-      <c r="AE15" s="178"/>
-      <c r="AF15" s="178"/>
-      <c r="AG15" s="178"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="112"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="115"/>
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="108"/>
       <c r="AJ15" s="99"/>
       <c r="AK15" s="100"/>
     </row>
@@ -6189,52 +6258,46 @@
         <f>"miap"&amp;C16</f>
         <v>miap1st</v>
       </c>
-      <c r="B16" s="126" t="s">
-        <v>154</v>
+      <c r="B16" s="158" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="103">
-        <v>10</v>
-      </c>
-      <c r="E16" s="108">
-        <v>8</v>
-      </c>
-      <c r="F16" s="108">
-        <v>6</v>
-      </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="108"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="108"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="32">
+      <c r="D16" s="103"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="109"/>
+      <c r="AI16" s="32" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((D16:AH16&lt;&gt;"")*COLUMN(D16:AH16))))),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="34"/>
@@ -6244,11 +6307,11 @@
         <f t="shared" ref="A17:A46" si="0">"miap"&amp;C17</f>
         <v>miap2nd</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="121"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="72"/>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -6291,12 +6354,12 @@
         <f t="shared" si="0"/>
         <v>miap3rd</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="119" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="72"/>
       <c r="G18" s="98"/>
       <c r="H18" s="98"/>
@@ -6338,13 +6401,13 @@
         <f t="shared" si="0"/>
         <v>miap4th</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="119" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="72"/>
       <c r="H19" s="98"/>
       <c r="I19" s="98"/>
@@ -6385,14 +6448,14 @@
         <f t="shared" si="0"/>
         <v>miap5th</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="119" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="121"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="156"/>
       <c r="H20" s="72"/>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
@@ -6432,15 +6495,15 @@
         <f t="shared" si="0"/>
         <v>miap6th</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="119" t="s">
+      <c r="B21" s="158"/>
+      <c r="C21" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="156"/>
       <c r="I21" s="72"/>
       <c r="J21" s="98"/>
       <c r="K21" s="98"/>
@@ -6479,16 +6542,16 @@
         <f t="shared" si="0"/>
         <v>miap7th</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="119" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="72"/>
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
@@ -6526,17 +6589,17 @@
         <f t="shared" si="0"/>
         <v>miap8th</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="119" t="s">
+      <c r="B23" s="158"/>
+      <c r="C23" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="156"/>
       <c r="K23" s="72"/>
       <c r="L23" s="98"/>
       <c r="M23" s="98"/>
@@ -6573,18 +6636,18 @@
         <f t="shared" si="0"/>
         <v>miap9th</v>
       </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="119" t="s">
+      <c r="B24" s="158"/>
+      <c r="C24" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="121"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="156"/>
       <c r="L24" s="72"/>
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
@@ -6620,19 +6683,19 @@
         <f t="shared" si="0"/>
         <v>miap10th</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="119" t="s">
+      <c r="B25" s="158"/>
+      <c r="C25" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="156"/>
       <c r="M25" s="72"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
@@ -6667,20 +6730,20 @@
         <f t="shared" si="0"/>
         <v>miap11th</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="119" t="s">
+      <c r="B26" s="158"/>
+      <c r="C26" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="121"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="156"/>
       <c r="N26" s="72"/>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
@@ -6714,21 +6777,21 @@
         <f t="shared" si="0"/>
         <v>miap12th</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="119" t="s">
+      <c r="B27" s="158"/>
+      <c r="C27" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="125"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="157"/>
       <c r="O27" s="72"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
@@ -6761,22 +6824,22 @@
         <f t="shared" si="0"/>
         <v>miap13th</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="119" t="s">
+      <c r="B28" s="158"/>
+      <c r="C28" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="143"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="192"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
@@ -6808,23 +6871,23 @@
         <f t="shared" si="0"/>
         <v>miap14th</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="119" t="s">
+      <c r="B29" s="158"/>
+      <c r="C29" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="125"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="157"/>
       <c r="Q29" s="72"/>
       <c r="R29" s="98"/>
       <c r="S29" s="98"/>
@@ -6855,24 +6918,24 @@
         <f t="shared" si="0"/>
         <v>miap15th</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="119" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
       <c r="R30" s="72"/>
       <c r="S30" s="98"/>
       <c r="T30" s="98"/>
@@ -6902,25 +6965,25 @@
         <f t="shared" si="0"/>
         <v>miap16th</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="119" t="s">
+      <c r="B31" s="158"/>
+      <c r="C31" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
       <c r="S31" s="72"/>
       <c r="T31" s="98"/>
       <c r="U31" s="98"/>
@@ -6949,26 +7012,26 @@
         <f t="shared" si="0"/>
         <v>miap17th</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="119" t="s">
+      <c r="B32" s="158"/>
+      <c r="C32" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
       <c r="T32" s="72"/>
       <c r="U32" s="98"/>
       <c r="V32" s="98"/>
@@ -6996,27 +7059,27 @@
         <f t="shared" si="0"/>
         <v>miap18th</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="119" t="s">
+      <c r="B33" s="158"/>
+      <c r="C33" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
       <c r="U33" s="72"/>
       <c r="V33" s="98"/>
       <c r="W33" s="98"/>
@@ -7043,28 +7106,28 @@
         <f t="shared" si="0"/>
         <v>miap19th</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="119" t="s">
+      <c r="B34" s="158"/>
+      <c r="C34" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
       <c r="V34" s="72"/>
       <c r="W34" s="98"/>
       <c r="X34" s="98"/>
@@ -7090,29 +7153,29 @@
         <f t="shared" si="0"/>
         <v>miap20th</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="119" t="s">
+      <c r="B35" s="158"/>
+      <c r="C35" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="152"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="152"/>
       <c r="W35" s="72"/>
       <c r="X35" s="98"/>
       <c r="Y35" s="98"/>
@@ -7137,30 +7200,30 @@
         <f t="shared" si="0"/>
         <v>miap21st</v>
       </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="119" t="s">
+      <c r="B36" s="158"/>
+      <c r="C36" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="152"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="152"/>
       <c r="X36" s="72"/>
       <c r="Y36" s="98"/>
       <c r="Z36" s="98"/>
@@ -7184,31 +7247,31 @@
         <f t="shared" si="0"/>
         <v>miap22nd</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="119" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="152"/>
+      <c r="P37" s="152"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="152"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="152"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="152"/>
+      <c r="W37" s="152"/>
+      <c r="X37" s="152"/>
       <c r="Y37" s="72"/>
       <c r="Z37" s="98"/>
       <c r="AA37" s="98"/>
@@ -7231,32 +7294,32 @@
         <f t="shared" si="0"/>
         <v>miap23rd</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="119" t="s">
+      <c r="B38" s="158"/>
+      <c r="C38" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="120"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="120"/>
-      <c r="X38" s="120"/>
-      <c r="Y38" s="120"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="152"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="152"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="152"/>
+      <c r="Y38" s="152"/>
       <c r="Z38" s="72"/>
       <c r="AA38" s="98"/>
       <c r="AB38" s="98"/>
@@ -7278,33 +7341,33 @@
         <f t="shared" si="0"/>
         <v>miap24th</v>
       </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="119" t="s">
+      <c r="B39" s="158"/>
+      <c r="C39" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="120"/>
-      <c r="T39" s="120"/>
-      <c r="U39" s="120"/>
-      <c r="V39" s="120"/>
-      <c r="W39" s="120"/>
-      <c r="X39" s="120"/>
-      <c r="Y39" s="120"/>
-      <c r="Z39" s="120"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="152"/>
+      <c r="P39" s="152"/>
+      <c r="Q39" s="152"/>
+      <c r="R39" s="152"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
+      <c r="V39" s="152"/>
+      <c r="W39" s="152"/>
+      <c r="X39" s="152"/>
+      <c r="Y39" s="152"/>
+      <c r="Z39" s="152"/>
       <c r="AA39" s="72"/>
       <c r="AB39" s="98"/>
       <c r="AC39" s="98"/>
@@ -7325,34 +7388,34 @@
         <f t="shared" si="0"/>
         <v>miap25th</v>
       </c>
-      <c r="B40" s="126"/>
-      <c r="C40" s="119" t="s">
+      <c r="B40" s="158"/>
+      <c r="C40" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="120"/>
-      <c r="X40" s="120"/>
-      <c r="Y40" s="120"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="120"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="152"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="152"/>
+      <c r="P40" s="152"/>
+      <c r="Q40" s="152"/>
+      <c r="R40" s="152"/>
+      <c r="S40" s="152"/>
+      <c r="T40" s="152"/>
+      <c r="U40" s="152"/>
+      <c r="V40" s="152"/>
+      <c r="W40" s="152"/>
+      <c r="X40" s="152"/>
+      <c r="Y40" s="152"/>
+      <c r="Z40" s="152"/>
+      <c r="AA40" s="152"/>
       <c r="AB40" s="72"/>
       <c r="AC40" s="98"/>
       <c r="AD40" s="98"/>
@@ -7372,35 +7435,35 @@
         <f t="shared" si="0"/>
         <v>miap26th</v>
       </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="119" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="120"/>
-      <c r="T41" s="120"/>
-      <c r="U41" s="120"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="120"/>
-      <c r="X41" s="120"/>
-      <c r="Y41" s="120"/>
-      <c r="Z41" s="120"/>
-      <c r="AA41" s="120"/>
-      <c r="AB41" s="120"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="152"/>
+      <c r="P41" s="152"/>
+      <c r="Q41" s="152"/>
+      <c r="R41" s="152"/>
+      <c r="S41" s="152"/>
+      <c r="T41" s="152"/>
+      <c r="U41" s="152"/>
+      <c r="V41" s="152"/>
+      <c r="W41" s="152"/>
+      <c r="X41" s="152"/>
+      <c r="Y41" s="152"/>
+      <c r="Z41" s="152"/>
+      <c r="AA41" s="152"/>
+      <c r="AB41" s="152"/>
       <c r="AC41" s="72"/>
       <c r="AD41" s="98"/>
       <c r="AE41" s="98"/>
@@ -7419,36 +7482,36 @@
         <f t="shared" si="0"/>
         <v>miap27th</v>
       </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="119" t="s">
+      <c r="B42" s="158"/>
+      <c r="C42" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="120"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="120"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="152"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="152"/>
+      <c r="U42" s="152"/>
+      <c r="V42" s="152"/>
+      <c r="W42" s="152"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="152"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="152"/>
+      <c r="AC42" s="152"/>
       <c r="AD42" s="72"/>
       <c r="AE42" s="98"/>
       <c r="AF42" s="98"/>
@@ -7466,37 +7529,37 @@
         <f t="shared" si="0"/>
         <v>miap28th</v>
       </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="119" t="s">
+      <c r="B43" s="158"/>
+      <c r="C43" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="120"/>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="152"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="152"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="152"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="152"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="152"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="152"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="152"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="152"/>
       <c r="AE43" s="72"/>
       <c r="AF43" s="98"/>
       <c r="AG43" s="98"/>
@@ -7513,38 +7576,38 @@
         <f t="shared" si="0"/>
         <v>miap29th</v>
       </c>
-      <c r="B44" s="126"/>
-      <c r="C44" s="152" t="s">
+      <c r="B44" s="158"/>
+      <c r="C44" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="153"/>
-      <c r="V44" s="153"/>
-      <c r="W44" s="153"/>
-      <c r="X44" s="153"/>
-      <c r="Y44" s="153"/>
-      <c r="Z44" s="153"/>
-      <c r="AA44" s="153"/>
-      <c r="AB44" s="153"/>
-      <c r="AC44" s="153"/>
-      <c r="AD44" s="153"/>
-      <c r="AE44" s="153"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="187"/>
+      <c r="M44" s="187"/>
+      <c r="N44" s="187"/>
+      <c r="O44" s="187"/>
+      <c r="P44" s="187"/>
+      <c r="Q44" s="187"/>
+      <c r="R44" s="187"/>
+      <c r="S44" s="187"/>
+      <c r="T44" s="187"/>
+      <c r="U44" s="187"/>
+      <c r="V44" s="187"/>
+      <c r="W44" s="187"/>
+      <c r="X44" s="187"/>
+      <c r="Y44" s="187"/>
+      <c r="Z44" s="187"/>
+      <c r="AA44" s="187"/>
+      <c r="AB44" s="187"/>
+      <c r="AC44" s="187"/>
+      <c r="AD44" s="187"/>
+      <c r="AE44" s="187"/>
       <c r="AF44" s="72"/>
       <c r="AG44" s="98"/>
       <c r="AH44" s="34"/>
@@ -7560,39 +7623,39 @@
         <f t="shared" si="0"/>
         <v>miap30th</v>
       </c>
-      <c r="B45" s="126"/>
-      <c r="C45" s="152" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="153"/>
-      <c r="Q45" s="153"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="153"/>
-      <c r="T45" s="153"/>
-      <c r="U45" s="153"/>
-      <c r="V45" s="153"/>
-      <c r="W45" s="153"/>
-      <c r="X45" s="153"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="153"/>
-      <c r="AA45" s="153"/>
-      <c r="AB45" s="153"/>
-      <c r="AC45" s="153"/>
-      <c r="AD45" s="153"/>
-      <c r="AE45" s="153"/>
-      <c r="AF45" s="153"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="187"/>
+      <c r="N45" s="187"/>
+      <c r="O45" s="187"/>
+      <c r="P45" s="187"/>
+      <c r="Q45" s="187"/>
+      <c r="R45" s="187"/>
+      <c r="S45" s="187"/>
+      <c r="T45" s="187"/>
+      <c r="U45" s="187"/>
+      <c r="V45" s="187"/>
+      <c r="W45" s="187"/>
+      <c r="X45" s="187"/>
+      <c r="Y45" s="187"/>
+      <c r="Z45" s="187"/>
+      <c r="AA45" s="187"/>
+      <c r="AB45" s="187"/>
+      <c r="AC45" s="187"/>
+      <c r="AD45" s="187"/>
+      <c r="AE45" s="187"/>
+      <c r="AF45" s="187"/>
       <c r="AG45" s="72"/>
       <c r="AH45" s="98"/>
       <c r="AI45" s="29" t="str">
@@ -7607,40 +7670,40 @@
         <f t="shared" si="0"/>
         <v>miap31st</v>
       </c>
-      <c r="B46" s="126"/>
-      <c r="C46" s="154" t="s">
+      <c r="B46" s="158"/>
+      <c r="C46" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="155"/>
-      <c r="T46" s="155"/>
-      <c r="U46" s="155"/>
-      <c r="V46" s="155"/>
-      <c r="W46" s="155"/>
-      <c r="X46" s="155"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="155"/>
-      <c r="AA46" s="155"/>
-      <c r="AB46" s="155"/>
-      <c r="AC46" s="155"/>
-      <c r="AD46" s="155"/>
-      <c r="AE46" s="155"/>
-      <c r="AF46" s="155"/>
-      <c r="AG46" s="155"/>
+      <c r="D46" s="189"/>
+      <c r="E46" s="189"/>
+      <c r="F46" s="189"/>
+      <c r="G46" s="189"/>
+      <c r="H46" s="189"/>
+      <c r="I46" s="189"/>
+      <c r="J46" s="189"/>
+      <c r="K46" s="189"/>
+      <c r="L46" s="189"/>
+      <c r="M46" s="189"/>
+      <c r="N46" s="189"/>
+      <c r="O46" s="189"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="189"/>
+      <c r="R46" s="189"/>
+      <c r="S46" s="189"/>
+      <c r="T46" s="189"/>
+      <c r="U46" s="189"/>
+      <c r="V46" s="189"/>
+      <c r="W46" s="189"/>
+      <c r="X46" s="189"/>
+      <c r="Y46" s="189"/>
+      <c r="Z46" s="189"/>
+      <c r="AA46" s="189"/>
+      <c r="AB46" s="189"/>
+      <c r="AC46" s="189"/>
+      <c r="AD46" s="189"/>
+      <c r="AE46" s="189"/>
+      <c r="AF46" s="189"/>
+      <c r="AG46" s="189"/>
       <c r="AH46" s="72"/>
       <c r="AI46" s="29" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH46&lt;&gt;"")*COLUMN(AH46))))),"")</f>
@@ -7653,44 +7716,44 @@
       <c r="A47" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="127"/>
-      <c r="C47" s="156" t="s">
+      <c r="B47" s="159"/>
+      <c r="C47" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="150"/>
-      <c r="O47" s="150"/>
-      <c r="P47" s="150"/>
-      <c r="Q47" s="150"/>
-      <c r="R47" s="150"/>
-      <c r="S47" s="150"/>
-      <c r="T47" s="150"/>
-      <c r="U47" s="150"/>
-      <c r="V47" s="150"/>
-      <c r="W47" s="150"/>
-      <c r="X47" s="150"/>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="150"/>
-      <c r="AB47" s="150"/>
-      <c r="AC47" s="150"/>
-      <c r="AD47" s="150"/>
-      <c r="AE47" s="150"/>
-      <c r="AF47" s="150"/>
-      <c r="AG47" s="150"/>
-      <c r="AH47" s="151"/>
-      <c r="AI47" s="52">
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="184"/>
+      <c r="O47" s="184"/>
+      <c r="P47" s="184"/>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="184"/>
+      <c r="S47" s="184"/>
+      <c r="T47" s="184"/>
+      <c r="U47" s="184"/>
+      <c r="V47" s="184"/>
+      <c r="W47" s="184"/>
+      <c r="X47" s="184"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="184"/>
+      <c r="AA47" s="184"/>
+      <c r="AB47" s="184"/>
+      <c r="AC47" s="184"/>
+      <c r="AD47" s="184"/>
+      <c r="AE47" s="184"/>
+      <c r="AF47" s="184"/>
+      <c r="AG47" s="184"/>
+      <c r="AH47" s="185"/>
+      <c r="AI47" s="52" t="str">
         <f ca="1">IF(SUM(AI16:AI46)=0,"",SUM(AI16:AI46))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="AJ47" s="52" t="str">
         <f>IF(SUM(AJ16:AJ46)=0,"",SUM(AJ16:AJ46))</f>
@@ -7743,19 +7806,19 @@
     <row r="49" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="146" t="s">
+      <c r="C49" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="147" t="s">
+      <c r="D49" s="177"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="177"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="147"/>
+      <c r="K49" s="178"/>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -7786,17 +7849,20 @@
     <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="144" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
+      <c r="C50" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="175"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="195">
+        <f>SUM(D10:AH10,D14:AH14)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="196"/>
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -7827,17 +7893,20 @@
     <row r="51" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="144" t="s">
+      <c r="C51" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
+      <c r="D51" s="175"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="197">
+        <f>SUM(D15:AH15,D11:AH11)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="198"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -7868,17 +7937,20 @@
     <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="144" t="s">
+      <c r="C52" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="145"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="195">
+        <f>SUM(D13:AH13,D9:AH9)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="196"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
@@ -7908,17 +7980,20 @@
     </row>
     <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
-      <c r="C53" s="149" t="s">
+      <c r="C53" s="180" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="180"/>
+      <c r="G53" s="180"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="195">
+        <f>SUM(AF12:AH12,D8:AH8)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="196"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -7949,17 +8024,20 @@
     <row r="54" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="195">
+        <f ca="1">SUM(AI16:AI46)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="196"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -8824,8 +8902,8 @@
       <c r="AK76" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="63">
+  <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="64">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="M47:AH47"/>
     <mergeCell ref="C36:W36"/>
@@ -8842,6 +8920,7 @@
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="C27:N27"/>
     <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C33:T33"/>
     <mergeCell ref="C54:I54"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="C49:I49"/>
@@ -8854,7 +8933,6 @@
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="J53:K53"/>
-    <mergeCell ref="C41:AB41"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
     <mergeCell ref="AJ4:AK4"/>
@@ -8867,9 +8945,6 @@
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="C35:V35"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C33:T33"/>
     <mergeCell ref="C34:U34"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="L3:R3"/>
@@ -8883,6 +8958,10 @@
     <mergeCell ref="C32:S32"/>
     <mergeCell ref="B16:B47"/>
     <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="C41:AB41"/>
+    <mergeCell ref="C35:V35"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A7:A11"/>
     <mergeCell ref="B1:AG1"/>
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
@@ -8891,416 +8970,419 @@
     <mergeCell ref="AB3:AC3"/>
   </mergeCells>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="183" priority="95">
+    <cfRule type="expression" dxfId="184" priority="97">
       <formula>E16&gt;D16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:AG16">
-    <cfRule type="expression" dxfId="182" priority="93">
+    <cfRule type="expression" dxfId="183" priority="95">
       <formula>E16&gt;D16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="94">
+    <cfRule type="expression" dxfId="182" priority="96">
       <formula>F16&gt;E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="180" priority="92">
+    <cfRule type="expression" dxfId="181" priority="94">
       <formula>F17&gt;E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:AG17">
-    <cfRule type="expression" dxfId="179" priority="90">
+    <cfRule type="expression" dxfId="180" priority="92">
       <formula>F17&gt;E17</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="91">
+    <cfRule type="expression" dxfId="179" priority="93">
       <formula>G17&gt;F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="177" priority="89">
+    <cfRule type="expression" dxfId="178" priority="91">
       <formula>G18&gt;F18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:AG18">
-    <cfRule type="expression" dxfId="176" priority="87">
+    <cfRule type="expression" dxfId="177" priority="89">
       <formula>G18&gt;F18</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="88">
+    <cfRule type="expression" dxfId="176" priority="90">
       <formula>H18&gt;G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="174" priority="86">
+    <cfRule type="expression" dxfId="175" priority="88">
       <formula>H19&gt;G19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:AG19">
-    <cfRule type="expression" dxfId="173" priority="84">
+    <cfRule type="expression" dxfId="174" priority="86">
       <formula>H19&gt;G19</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="85">
+    <cfRule type="expression" dxfId="173" priority="87">
       <formula>I19&gt;H19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="171" priority="83">
+    <cfRule type="expression" dxfId="172" priority="85">
       <formula>I20&gt;H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:AG20">
-    <cfRule type="expression" dxfId="170" priority="81">
+    <cfRule type="expression" dxfId="171" priority="83">
       <formula>I20&gt;H20</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="82">
+    <cfRule type="expression" dxfId="170" priority="84">
       <formula>J20&gt;I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="168" priority="80">
+    <cfRule type="expression" dxfId="169" priority="82">
       <formula>J21&gt;I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:AG21">
-    <cfRule type="expression" dxfId="167" priority="78">
+    <cfRule type="expression" dxfId="168" priority="80">
       <formula>J21&gt;I21</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="79">
+    <cfRule type="expression" dxfId="167" priority="81">
       <formula>K21&gt;J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="165" priority="77">
+    <cfRule type="expression" dxfId="166" priority="79">
       <formula>K22&gt;J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:AG22">
-    <cfRule type="expression" dxfId="164" priority="75">
+    <cfRule type="expression" dxfId="165" priority="77">
       <formula>K22&gt;J22</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="76">
+    <cfRule type="expression" dxfId="164" priority="78">
       <formula>L22&gt;K22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="162" priority="74">
+    <cfRule type="expression" dxfId="163" priority="76">
       <formula>L23&gt;K23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:AG23">
-    <cfRule type="expression" dxfId="161" priority="72">
+    <cfRule type="expression" dxfId="162" priority="74">
       <formula>L23&gt;K23</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="73">
+    <cfRule type="expression" dxfId="161" priority="75">
       <formula>M23&gt;L23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="expression" dxfId="159" priority="71">
+    <cfRule type="expression" dxfId="160" priority="73">
       <formula>M24&gt;L24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:AG24">
-    <cfRule type="expression" dxfId="158" priority="69">
+    <cfRule type="expression" dxfId="159" priority="71">
       <formula>M24&gt;L24</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="70">
+    <cfRule type="expression" dxfId="158" priority="72">
       <formula>N24&gt;M24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="156" priority="68">
+    <cfRule type="expression" dxfId="157" priority="70">
       <formula>N25&gt;M25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:AG25">
-    <cfRule type="expression" dxfId="155" priority="66">
+    <cfRule type="expression" dxfId="156" priority="68">
       <formula>N25&gt;M25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="67">
+    <cfRule type="expression" dxfId="155" priority="69">
       <formula>O25&gt;N25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="153" priority="65">
+    <cfRule type="expression" dxfId="154" priority="67">
       <formula>O26&gt;N26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:AG26">
-    <cfRule type="expression" dxfId="152" priority="63">
+    <cfRule type="expression" dxfId="153" priority="65">
       <formula>O26&gt;N26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="64">
+    <cfRule type="expression" dxfId="152" priority="66">
       <formula>P26&gt;O26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="expression" dxfId="150" priority="62">
+    <cfRule type="expression" dxfId="151" priority="64">
       <formula>P27&gt;O27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:AG27">
-    <cfRule type="expression" dxfId="149" priority="60">
+    <cfRule type="expression" dxfId="150" priority="62">
       <formula>P27&gt;O27</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="61">
+    <cfRule type="expression" dxfId="149" priority="63">
       <formula>Q27&gt;P27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="147" priority="59">
+    <cfRule type="expression" dxfId="148" priority="61">
       <formula>Q28&gt;P28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:AG28">
-    <cfRule type="expression" dxfId="146" priority="57">
+    <cfRule type="expression" dxfId="147" priority="59">
       <formula>Q28&gt;P28</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="58">
+    <cfRule type="expression" dxfId="146" priority="60">
       <formula>R28&gt;Q28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="144" priority="56">
+    <cfRule type="expression" dxfId="145" priority="58">
       <formula>R29&gt;Q29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:AG29">
-    <cfRule type="expression" dxfId="143" priority="54">
+    <cfRule type="expression" dxfId="144" priority="56">
       <formula>R29&gt;Q29</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="55">
+    <cfRule type="expression" dxfId="143" priority="57">
       <formula>S29&gt;R29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30">
-    <cfRule type="expression" dxfId="141" priority="53">
+    <cfRule type="expression" dxfId="142" priority="55">
       <formula>S30&gt;R30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:AG30">
-    <cfRule type="expression" dxfId="140" priority="51">
+    <cfRule type="expression" dxfId="141" priority="53">
       <formula>S30&gt;R30</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="52">
+    <cfRule type="expression" dxfId="140" priority="54">
       <formula>T30&gt;S30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="expression" dxfId="138" priority="50">
+    <cfRule type="expression" dxfId="139" priority="52">
       <formula>T31&gt;S31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:AG31">
-    <cfRule type="expression" dxfId="137" priority="48">
+    <cfRule type="expression" dxfId="138" priority="50">
       <formula>T31&gt;S31</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="49">
+    <cfRule type="expression" dxfId="137" priority="51">
       <formula>U31&gt;T31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="135" priority="47">
+    <cfRule type="expression" dxfId="136" priority="49">
       <formula>U32&gt;T32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:AG32">
-    <cfRule type="expression" dxfId="134" priority="45">
+    <cfRule type="expression" dxfId="135" priority="47">
       <formula>U32&gt;T32</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="46">
+    <cfRule type="expression" dxfId="134" priority="48">
       <formula>V32&gt;U32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="expression" dxfId="132" priority="44">
+    <cfRule type="expression" dxfId="133" priority="46">
       <formula>V33&gt;U33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33:AG33">
-    <cfRule type="expression" dxfId="131" priority="42">
+    <cfRule type="expression" dxfId="132" priority="44">
       <formula>V33&gt;U33</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="43">
+    <cfRule type="expression" dxfId="131" priority="45">
       <formula>W33&gt;V33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="expression" dxfId="129" priority="41">
+    <cfRule type="expression" dxfId="130" priority="43">
       <formula>W34&gt;V34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34:AG34">
-    <cfRule type="expression" dxfId="128" priority="39">
+    <cfRule type="expression" dxfId="129" priority="41">
       <formula>W34&gt;V34</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="40">
+    <cfRule type="expression" dxfId="128" priority="42">
       <formula>X34&gt;W34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="expression" dxfId="126" priority="38">
+    <cfRule type="expression" dxfId="127" priority="40">
       <formula>X35&gt;W35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35:AG35">
-    <cfRule type="expression" dxfId="125" priority="36">
+    <cfRule type="expression" dxfId="126" priority="38">
       <formula>X35&gt;W35</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="37">
+    <cfRule type="expression" dxfId="125" priority="39">
       <formula>Y35&gt;X35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="expression" dxfId="123" priority="35">
+    <cfRule type="expression" dxfId="124" priority="37">
       <formula>Y36&gt;X36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36:AG36">
-    <cfRule type="expression" dxfId="122" priority="33">
+    <cfRule type="expression" dxfId="123" priority="35">
       <formula>Y36&gt;X36</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="34">
+    <cfRule type="expression" dxfId="122" priority="36">
       <formula>Z36&gt;Y36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="expression" dxfId="120" priority="32">
+    <cfRule type="expression" dxfId="121" priority="34">
       <formula>Z37&gt;Y37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37:AG37">
-    <cfRule type="expression" dxfId="119" priority="30">
+    <cfRule type="expression" dxfId="120" priority="32">
       <formula>Z37&gt;Y37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="31">
+    <cfRule type="expression" dxfId="119" priority="33">
       <formula>AA37&gt;Z37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38">
-    <cfRule type="expression" dxfId="117" priority="29">
+    <cfRule type="expression" dxfId="118" priority="31">
       <formula>AA38&gt;Z38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38:AG38">
-    <cfRule type="expression" dxfId="116" priority="27">
+    <cfRule type="expression" dxfId="117" priority="29">
       <formula>AA38&gt;Z38</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="28">
+    <cfRule type="expression" dxfId="116" priority="30">
       <formula>AB38&gt;AA38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="114" priority="26">
+    <cfRule type="expression" dxfId="115" priority="28">
       <formula>AB39&gt;AA39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39:AG39">
-    <cfRule type="expression" dxfId="113" priority="24">
+    <cfRule type="expression" dxfId="114" priority="26">
       <formula>AB39&gt;AA39</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="25">
+    <cfRule type="expression" dxfId="113" priority="27">
       <formula>AC39&gt;AB39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB40">
-    <cfRule type="expression" dxfId="111" priority="23">
+    <cfRule type="expression" dxfId="112" priority="25">
       <formula>AC40&gt;AB40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC40:AG40">
-    <cfRule type="expression" dxfId="110" priority="21">
+    <cfRule type="expression" dxfId="111" priority="23">
       <formula>AC40&gt;AB40</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="22">
+    <cfRule type="expression" dxfId="110" priority="24">
       <formula>AD40&gt;AC40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC41">
-    <cfRule type="expression" dxfId="108" priority="20">
+    <cfRule type="expression" dxfId="109" priority="22">
       <formula>AD41&gt;AC41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41:AG41">
-    <cfRule type="expression" dxfId="107" priority="18">
+    <cfRule type="expression" dxfId="108" priority="20">
       <formula>AD41&gt;AC41</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="19">
+    <cfRule type="expression" dxfId="107" priority="21">
       <formula>AE41&gt;AD41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD42">
-    <cfRule type="expression" dxfId="105" priority="17">
+    <cfRule type="expression" dxfId="106" priority="19">
       <formula>AE42&gt;AD42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE42:AG42">
-    <cfRule type="expression" dxfId="104" priority="15">
+    <cfRule type="expression" dxfId="105" priority="17">
       <formula>AE42&gt;AD42</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="16">
+    <cfRule type="expression" dxfId="104" priority="18">
       <formula>AF42&gt;AE42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE43">
-    <cfRule type="expression" dxfId="102" priority="14">
+    <cfRule type="expression" dxfId="103" priority="16">
       <formula>AF43&gt;AE43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF43:AG43">
-    <cfRule type="expression" dxfId="101" priority="12">
+    <cfRule type="expression" dxfId="102" priority="14">
       <formula>AF43&gt;AE43</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="13">
+    <cfRule type="expression" dxfId="101" priority="15">
       <formula>AG43&gt;AF43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF44">
-    <cfRule type="expression" dxfId="99" priority="11">
+    <cfRule type="expression" dxfId="100" priority="13">
       <formula>AG44&gt;AF44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44">
-    <cfRule type="expression" dxfId="98" priority="9">
+    <cfRule type="expression" dxfId="99" priority="11">
       <formula>AG44&gt;AF44</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="10">
+    <cfRule type="expression" dxfId="98" priority="12">
       <formula>AH44&gt;AG44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG45">
-    <cfRule type="expression" dxfId="96" priority="8">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>AH45&gt;AG45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45">
-    <cfRule type="expression" dxfId="95" priority="6">
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>AH45&gt;AG45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="7">
+    <cfRule type="expression" dxfId="95" priority="9">
       <formula>AI45&gt;AH45</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:AH7">
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
+  <conditionalFormatting sqref="G7:AH7">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:AG1">
-    <cfRule type="notContainsBlanks" dxfId="91" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:AH11">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>ISBLANK($C$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:AH15">
-    <cfRule type="expression" dxfId="89" priority="1">
-      <formula>ISBLANK($C$7)</formula>
+  <conditionalFormatting sqref="D7:F7">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9327,7 +9409,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -9392,146 +9474,146 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="124" t="s">
+      <c r="C3" s="148"/>
+      <c r="D3" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="116" t="s">
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="122" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="116" t="s">
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="118">
+      <c r="T3" s="148"/>
+      <c r="U3" s="150">
         <v>15288</v>
       </c>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
       <c r="X3" s="39"/>
-      <c r="Y3" s="116" t="s">
+      <c r="Y3" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="118">
+      <c r="Z3" s="148"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="150">
         <v>2021</v>
       </c>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="116" t="s">
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="117" t="s">
+      <c r="AE3" s="148"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="117"/>
+      <c r="AH3" s="149"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="137" t="s">
+      <c r="B4" s="160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="AJ4" s="134" t="s">
+      <c r="AJ4" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="135"/>
+      <c r="AK4" s="167"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
-      <c r="AA5" s="129"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="129"/>
-      <c r="AI5" s="138"/>
-      <c r="AJ5" s="130" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="161"/>
+      <c r="AG5" s="161"/>
+      <c r="AH5" s="161"/>
+      <c r="AI5" s="170"/>
+      <c r="AJ5" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="132" t="s">
+      <c r="AK5" s="164" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9636,9 +9718,9 @@
       <c r="AH6" s="49">
         <v>31</v>
       </c>
-      <c r="AI6" s="139"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="133"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="163"/>
+      <c r="AK6" s="165"/>
     </row>
     <row r="7" spans="1:37" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
@@ -9679,7 +9761,7 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="28"/>
-      <c r="AI7" s="140"/>
+      <c r="AI7" s="172"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
@@ -9722,7 +9804,7 @@
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
       <c r="AH8" s="27"/>
-      <c r="AI8" s="159"/>
+      <c r="AI8" s="194"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
@@ -9730,7 +9812,7 @@
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="193" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -9778,11 +9860,11 @@
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="119" t="s">
+      <c r="B10" s="158"/>
+      <c r="C10" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="121"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="72"/>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
@@ -9824,12 +9906,12 @@
       <c r="A11" s="46">
         <v>6</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="158"/>
+      <c r="C11" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="72"/>
       <c r="G11" s="98"/>
       <c r="H11" s="98"/>
@@ -9870,13 +9952,13 @@
       <c r="A12" s="46">
         <v>7</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="72"/>
       <c r="H12" s="98"/>
       <c r="I12" s="98"/>
@@ -9916,14 +9998,14 @@
       <c r="A13" s="46">
         <v>8</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="119" t="s">
+      <c r="B13" s="158"/>
+      <c r="C13" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="121"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="156"/>
       <c r="H13" s="72"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -9962,15 +10044,15 @@
       <c r="A14" s="46">
         <v>9</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="119" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="156"/>
       <c r="I14" s="72"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
@@ -10008,16 +10090,16 @@
       <c r="A15" s="46">
         <v>10</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="158"/>
+      <c r="C15" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="156"/>
       <c r="J15" s="72"/>
       <c r="K15" s="98"/>
       <c r="L15" s="98"/>
@@ -10054,17 +10136,17 @@
       <c r="A16" s="46">
         <v>11</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="119" t="s">
+      <c r="B16" s="158"/>
+      <c r="C16" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="72"/>
       <c r="L16" s="98"/>
       <c r="M16" s="98"/>
@@ -10100,18 +10182,18 @@
       <c r="A17" s="46">
         <v>12</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="119" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="156"/>
       <c r="L17" s="72"/>
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
@@ -10146,19 +10228,19 @@
       <c r="A18" s="46">
         <v>13</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="119" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="121"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="156"/>
       <c r="M18" s="72"/>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
@@ -10192,20 +10274,20 @@
       <c r="A19" s="46">
         <v>14</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="119" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="121"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="156"/>
       <c r="N19" s="72"/>
       <c r="O19" s="98"/>
       <c r="P19" s="98"/>
@@ -10238,21 +10320,21 @@
       <c r="A20" s="46">
         <v>15</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="119" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="125"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="157"/>
       <c r="O20" s="72"/>
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
@@ -10284,22 +10366,22 @@
       <c r="A21" s="46">
         <v>16</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="119" t="s">
+      <c r="B21" s="158"/>
+      <c r="C21" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="143"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="192"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="98"/>
       <c r="R21" s="98"/>
@@ -10330,23 +10412,23 @@
       <c r="A22" s="46">
         <v>17</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="119" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="125"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="157"/>
       <c r="Q22" s="72"/>
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
@@ -10376,24 +10458,24 @@
       <c r="A23" s="46">
         <v>18</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="119" t="s">
+      <c r="B23" s="158"/>
+      <c r="C23" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
       <c r="R23" s="72"/>
       <c r="S23" s="98"/>
       <c r="T23" s="98"/>
@@ -10422,25 +10504,25 @@
       <c r="A24" s="46">
         <v>19</v>
       </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="119" t="s">
+      <c r="B24" s="158"/>
+      <c r="C24" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="152"/>
       <c r="S24" s="72"/>
       <c r="T24" s="98"/>
       <c r="U24" s="98"/>
@@ -10468,26 +10550,26 @@
       <c r="A25" s="46">
         <v>20</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="119" t="s">
+      <c r="B25" s="158"/>
+      <c r="C25" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="120"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="152"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
       <c r="T25" s="72"/>
       <c r="U25" s="98"/>
       <c r="V25" s="98"/>
@@ -10514,27 +10596,27 @@
       <c r="A26" s="46">
         <v>21</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="119" t="s">
+      <c r="B26" s="158"/>
+      <c r="C26" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="120"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
       <c r="U26" s="72"/>
       <c r="V26" s="98"/>
       <c r="W26" s="98"/>
@@ -10560,28 +10642,28 @@
       <c r="A27" s="46">
         <v>22</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="119" t="s">
+      <c r="B27" s="158"/>
+      <c r="C27" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
       <c r="V27" s="72"/>
       <c r="W27" s="98"/>
       <c r="X27" s="98"/>
@@ -10606,29 +10688,29 @@
       <c r="A28" s="46">
         <v>23</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="119" t="s">
+      <c r="B28" s="158"/>
+      <c r="C28" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="152"/>
       <c r="W28" s="72"/>
       <c r="X28" s="98"/>
       <c r="Y28" s="98"/>
@@ -10652,30 +10734,30 @@
       <c r="A29" s="46">
         <v>24</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="119" t="s">
+      <c r="B29" s="158"/>
+      <c r="C29" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="152"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="152"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
       <c r="X29" s="72"/>
       <c r="Y29" s="98"/>
       <c r="Z29" s="98"/>
@@ -10698,31 +10780,31 @@
       <c r="A30" s="46">
         <v>25</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="119" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
       <c r="Y30" s="72"/>
       <c r="Z30" s="98"/>
       <c r="AA30" s="98"/>
@@ -10744,32 +10826,32 @@
       <c r="A31" s="46">
         <v>26</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="119" t="s">
+      <c r="B31" s="158"/>
+      <c r="C31" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="152"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="152"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="152"/>
+      <c r="Y31" s="152"/>
       <c r="Z31" s="72"/>
       <c r="AA31" s="98"/>
       <c r="AB31" s="98"/>
@@ -10790,33 +10872,33 @@
       <c r="A32" s="46">
         <v>27</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="119" t="s">
+      <c r="B32" s="158"/>
+      <c r="C32" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="152"/>
+      <c r="S32" s="152"/>
+      <c r="T32" s="152"/>
+      <c r="U32" s="152"/>
+      <c r="V32" s="152"/>
+      <c r="W32" s="152"/>
+      <c r="X32" s="152"/>
+      <c r="Y32" s="152"/>
+      <c r="Z32" s="152"/>
       <c r="AA32" s="72"/>
       <c r="AB32" s="98"/>
       <c r="AC32" s="98"/>
@@ -10836,34 +10918,34 @@
       <c r="A33" s="46">
         <v>28</v>
       </c>
-      <c r="B33" s="126"/>
-      <c r="C33" s="119" t="s">
+      <c r="B33" s="158"/>
+      <c r="C33" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="152"/>
+      <c r="R33" s="152"/>
+      <c r="S33" s="152"/>
+      <c r="T33" s="152"/>
+      <c r="U33" s="152"/>
+      <c r="V33" s="152"/>
+      <c r="W33" s="152"/>
+      <c r="X33" s="152"/>
+      <c r="Y33" s="152"/>
+      <c r="Z33" s="152"/>
+      <c r="AA33" s="152"/>
       <c r="AB33" s="72"/>
       <c r="AC33" s="98"/>
       <c r="AD33" s="98"/>
@@ -10882,35 +10964,35 @@
       <c r="A34" s="46">
         <v>29</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="119" t="s">
+      <c r="B34" s="158"/>
+      <c r="C34" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="152"/>
+      <c r="Q34" s="152"/>
+      <c r="R34" s="152"/>
+      <c r="S34" s="152"/>
+      <c r="T34" s="152"/>
+      <c r="U34" s="152"/>
+      <c r="V34" s="152"/>
+      <c r="W34" s="152"/>
+      <c r="X34" s="152"/>
+      <c r="Y34" s="152"/>
+      <c r="Z34" s="152"/>
+      <c r="AA34" s="152"/>
+      <c r="AB34" s="152"/>
       <c r="AC34" s="72"/>
       <c r="AD34" s="98"/>
       <c r="AE34" s="98"/>
@@ -10928,36 +11010,36 @@
       <c r="A35" s="46">
         <v>30</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="119" t="s">
+      <c r="B35" s="158"/>
+      <c r="C35" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="152"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="152"/>
+      <c r="T35" s="152"/>
+      <c r="U35" s="152"/>
+      <c r="V35" s="152"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="152"/>
+      <c r="Y35" s="152"/>
+      <c r="Z35" s="152"/>
+      <c r="AA35" s="152"/>
+      <c r="AB35" s="152"/>
+      <c r="AC35" s="152"/>
       <c r="AD35" s="72"/>
       <c r="AE35" s="98"/>
       <c r="AF35" s="98"/>
@@ -10974,37 +11056,37 @@
       <c r="A36" s="46">
         <v>31</v>
       </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="119" t="s">
+      <c r="B36" s="158"/>
+      <c r="C36" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="120"/>
-      <c r="AC36" s="120"/>
-      <c r="AD36" s="120"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="152"/>
+      <c r="T36" s="152"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="152"/>
+      <c r="W36" s="152"/>
+      <c r="X36" s="152"/>
+      <c r="Y36" s="152"/>
+      <c r="Z36" s="152"/>
+      <c r="AA36" s="152"/>
+      <c r="AB36" s="152"/>
+      <c r="AC36" s="152"/>
+      <c r="AD36" s="152"/>
       <c r="AE36" s="72"/>
       <c r="AF36" s="98"/>
       <c r="AG36" s="98"/>
@@ -11020,38 +11102,38 @@
       <c r="A37" s="46">
         <v>32</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="152" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="153"/>
-      <c r="U37" s="153"/>
-      <c r="V37" s="153"/>
-      <c r="W37" s="153"/>
-      <c r="X37" s="153"/>
-      <c r="Y37" s="153"/>
-      <c r="Z37" s="153"/>
-      <c r="AA37" s="153"/>
-      <c r="AB37" s="153"/>
-      <c r="AC37" s="153"/>
-      <c r="AD37" s="153"/>
-      <c r="AE37" s="153"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="187"/>
+      <c r="O37" s="187"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="187"/>
+      <c r="R37" s="187"/>
+      <c r="S37" s="187"/>
+      <c r="T37" s="187"/>
+      <c r="U37" s="187"/>
+      <c r="V37" s="187"/>
+      <c r="W37" s="187"/>
+      <c r="X37" s="187"/>
+      <c r="Y37" s="187"/>
+      <c r="Z37" s="187"/>
+      <c r="AA37" s="187"/>
+      <c r="AB37" s="187"/>
+      <c r="AC37" s="187"/>
+      <c r="AD37" s="187"/>
+      <c r="AE37" s="187"/>
       <c r="AF37" s="72"/>
       <c r="AG37" s="98"/>
       <c r="AH37" s="28"/>
@@ -11066,39 +11148,39 @@
       <c r="A38" s="46">
         <v>33</v>
       </c>
-      <c r="B38" s="126"/>
-      <c r="C38" s="152" t="s">
+      <c r="B38" s="158"/>
+      <c r="C38" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="153"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="153"/>
-      <c r="V38" s="153"/>
-      <c r="W38" s="153"/>
-      <c r="X38" s="153"/>
-      <c r="Y38" s="153"/>
-      <c r="Z38" s="153"/>
-      <c r="AA38" s="153"/>
-      <c r="AB38" s="153"/>
-      <c r="AC38" s="153"/>
-      <c r="AD38" s="153"/>
-      <c r="AE38" s="153"/>
-      <c r="AF38" s="153"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="187"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="187"/>
+      <c r="X38" s="187"/>
+      <c r="Y38" s="187"/>
+      <c r="Z38" s="187"/>
+      <c r="AA38" s="187"/>
+      <c r="AB38" s="187"/>
+      <c r="AC38" s="187"/>
+      <c r="AD38" s="187"/>
+      <c r="AE38" s="187"/>
+      <c r="AF38" s="187"/>
       <c r="AG38" s="72"/>
       <c r="AH38" s="28"/>
       <c r="AI38" s="29" t="str">
@@ -11112,40 +11194,40 @@
       <c r="A39" s="46">
         <v>34</v>
       </c>
-      <c r="B39" s="126"/>
-      <c r="C39" s="154" t="s">
+      <c r="B39" s="158"/>
+      <c r="C39" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="155"/>
-      <c r="U39" s="155"/>
-      <c r="V39" s="155"/>
-      <c r="W39" s="155"/>
-      <c r="X39" s="155"/>
-      <c r="Y39" s="155"/>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="155"/>
-      <c r="AC39" s="155"/>
-      <c r="AD39" s="155"/>
-      <c r="AE39" s="155"/>
-      <c r="AF39" s="155"/>
-      <c r="AG39" s="155"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="189"/>
+      <c r="L39" s="189"/>
+      <c r="M39" s="189"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="189"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="189"/>
+      <c r="T39" s="189"/>
+      <c r="U39" s="189"/>
+      <c r="V39" s="189"/>
+      <c r="W39" s="189"/>
+      <c r="X39" s="189"/>
+      <c r="Y39" s="189"/>
+      <c r="Z39" s="189"/>
+      <c r="AA39" s="189"/>
+      <c r="AB39" s="189"/>
+      <c r="AC39" s="189"/>
+      <c r="AD39" s="189"/>
+      <c r="AE39" s="189"/>
+      <c r="AF39" s="189"/>
+      <c r="AG39" s="189"/>
       <c r="AH39" s="72"/>
       <c r="AI39" s="29" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH39&lt;&gt;"")*COLUMN(AH39))))),"")</f>
@@ -11158,41 +11240,41 @@
       <c r="A40" s="46">
         <v>35</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="156" t="s">
+      <c r="B40" s="159"/>
+      <c r="C40" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="150"/>
-      <c r="P40" s="150"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="150"/>
-      <c r="S40" s="150"/>
-      <c r="T40" s="150"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="150"/>
-      <c r="W40" s="150"/>
-      <c r="X40" s="150"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="150"/>
-      <c r="AA40" s="150"/>
-      <c r="AB40" s="150"/>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="150"/>
-      <c r="AE40" s="150"/>
-      <c r="AF40" s="150"/>
-      <c r="AG40" s="150"/>
-      <c r="AH40" s="151"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="184"/>
+      <c r="N40" s="184"/>
+      <c r="O40" s="184"/>
+      <c r="P40" s="184"/>
+      <c r="Q40" s="184"/>
+      <c r="R40" s="184"/>
+      <c r="S40" s="184"/>
+      <c r="T40" s="184"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="184"/>
+      <c r="W40" s="184"/>
+      <c r="X40" s="184"/>
+      <c r="Y40" s="184"/>
+      <c r="Z40" s="184"/>
+      <c r="AA40" s="184"/>
+      <c r="AB40" s="184"/>
+      <c r="AC40" s="184"/>
+      <c r="AD40" s="184"/>
+      <c r="AE40" s="184"/>
+      <c r="AF40" s="184"/>
+      <c r="AG40" s="184"/>
+      <c r="AH40" s="185"/>
       <c r="AI40" s="52" t="str">
         <f ca="1">IF(SUM(AI9:AI39)=0,"",SUM(AI9:AI39))</f>
         <v/>
@@ -11248,19 +11330,19 @@
     <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147" t="s">
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="147"/>
+      <c r="K42" s="178"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -11291,17 +11373,17 @@
     <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="66"/>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -11332,17 +11414,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="66"/>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -11373,17 +11455,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="66"/>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="176"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -11414,17 +11496,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="67"/>
-      <c r="C46" s="149" t="s">
+      <c r="C46" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="176"/>
+      <c r="K46" s="176"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -12914,17 +12996,17 @@
         <v>miap_1st</v>
       </c>
       <c r="G2" s="74"/>
-      <c r="H2" s="83">
+      <c r="H2" s="83" t="str">
         <f>IF(ISBLANK(FMATT!D16),"",FMATT!D16)</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="83">
+        <v/>
+      </c>
+      <c r="I2" s="83" t="str">
         <f>IF(ISBLANK(FMATT!E16),"",FMATT!E16)</f>
-        <v>8</v>
-      </c>
-      <c r="J2" s="83">
+        <v/>
+      </c>
+      <c r="J2" s="83" t="str">
         <f>IF(ISBLANK(FMATT!F16),"",FMATT!F16)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="K2" s="83" t="str">
         <f>IF(ISBLANK(FMATT!G16),"",FMATT!G16)</f>
@@ -13038,9 +13120,9 @@
         <f>IF(ISBLANK(FMATT!AH16),"",FMATT!AH16)</f>
         <v/>
       </c>
-      <c r="AM2" s="83">
+      <c r="AM2" s="83" t="str">
         <f ca="1">IF(ISBLANK(FMATT!AI16),"",FMATT!AI16)</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -16293,9 +16375,9 @@
       <c r="AJ33" s="69"/>
       <c r="AK33" s="69"/>
       <c r="AL33" s="69"/>
-      <c r="AM33" s="73">
+      <c r="AM33" s="73" t="str">
         <f ca="1">IF(ISBLANK(FMATT!AI47),"",FMATT!AI47)</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -16320,21 +16402,21 @@
       <c r="F34" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="69" t="str">
         <f>IF(ISBLANK(FMATT!C7),"",FMATT!C7)</f>
-        <v>30</v>
+        <v/>
       </c>
       <c r="H34" s="69">
         <f>IF(ISBLANK(FMATT!D7),"",FMATT!D7)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I34" s="69">
         <f>IF(ISBLANK(FMATT!E7),"",FMATT!E7)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J34" s="69">
         <f>IF(ISBLANK(FMATT!F7),"",FMATT!F7)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K34" s="69">
         <f>IF(ISBLANK(FMATT!G7),"",FMATT!G7)</f>
@@ -16476,17 +16558,17 @@
         <v>125</v>
       </c>
       <c r="G35" s="69"/>
-      <c r="H35" s="69">
+      <c r="H35" s="69" t="str">
         <f>IF(ISBLANK(FMATT!D8),"",FMATT!D8)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I35" s="69" t="str">
         <f>IF(ISBLANK(FMATT!E8),"",FMATT!E8)</f>
         <v/>
       </c>
-      <c r="J35" s="69">
+      <c r="J35" s="69" t="str">
         <f>IF(ISBLANK(FMATT!F8),"",FMATT!F8)</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K35" s="69" t="str">
         <f>IF(ISBLANK(FMATT!G8),"",FMATT!G8)</f>
@@ -21310,9 +21392,9 @@
       <c r="AJ109" s="74"/>
       <c r="AK109" s="74"/>
       <c r="AL109" s="74"/>
-      <c r="AM109" s="74" t="str">
+      <c r="AM109" s="74">
         <f>IF(ISBLANK(FMATT!J50),"",FMATT!J50)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
@@ -21370,9 +21452,9 @@
       <c r="AJ110" s="69"/>
       <c r="AK110" s="69"/>
       <c r="AL110" s="69"/>
-      <c r="AM110" s="69" t="str">
+      <c r="AM110" s="69">
         <f>IF(ISBLANK(FMATT!J51),"",FMATT!J51)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
@@ -21430,9 +21512,9 @@
       <c r="AJ111" s="69"/>
       <c r="AK111" s="69"/>
       <c r="AL111" s="69"/>
-      <c r="AM111" s="69" t="str">
+      <c r="AM111" s="69">
         <f>IF(ISBLANK(FMATT!J52),"",FMATT!J52)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
@@ -21490,9 +21572,9 @@
       <c r="AJ112" s="69"/>
       <c r="AK112" s="69"/>
       <c r="AL112" s="69"/>
-      <c r="AM112" s="69" t="str">
+      <c r="AM112" s="69">
         <f>IF(ISBLANK(FMATT!J53),"",FMATT!J53)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
@@ -21550,9 +21632,9 @@
       <c r="AJ113" s="69"/>
       <c r="AK113" s="69"/>
       <c r="AL113" s="69"/>
-      <c r="AM113" s="69" t="str">
-        <f>IF(ISBLANK(FMATT!J54),"",FMATT!J54)</f>
-        <v/>
+      <c r="AM113" s="69">
+        <f ca="1">IF(ISBLANK(FMATT!J54),"",FMATT!J54)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
